--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383DE4D-3BB0-4383-AE9E-CB34E01EC07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDA23F-C5A9-4006-8BE0-3528F83D03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,446 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+  <si>
+    <t>CLAUSE</t>
+  </si>
+  <si>
+    <t>NOTE:- Database and Schema are the same words. Both means Database.</t>
+  </si>
+  <si>
+    <t>To create a database or schema in mysql we can use both cmd and mysql workbench but we will in this excel sheet only talk about cmd commands with mysql</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First of all we have to open a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd in run as administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then write </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">command cd C:\Program Files\MySQL\MySQL Server 8.0\bin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, because it's going to run on  this path only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and then write command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql -u root -p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then hit enter after that we have to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enter a password of mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stands for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stands for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
+  <si>
+    <t>SHOW DATABASES;</t>
+  </si>
+  <si>
+    <t>EXPLAINATION</t>
+  </si>
+  <si>
+    <t>It show every databases or schemas on the device.</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE "DATABASE NAME"</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE HARSH;</t>
+  </si>
+  <si>
+    <t>It will create a new Database.</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>USE "DATABASE NAME"</t>
+  </si>
+  <si>
+    <t>USE HARSH;</t>
+  </si>
+  <si>
+    <t>To Use the Database.</t>
+  </si>
+  <si>
+    <t>CREATE TABLE "TABLE NAME"</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>This will Describe the table info, like NULL, KEY, DEFAULT.</t>
+  </si>
+  <si>
+    <t>CREATE TABLE EMPLOYEE(
+    -&gt; EmpId int,
+    -&gt; FirstName varchar(20),
+    -&gt; LastName varchar(22),
+    -&gt; EmpAge int
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>This will create a table in a database and add 4 columns in it (EmpId, FirstName, LastName, EmpAge).</t>
+  </si>
+  <si>
+    <t>DESC "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>DESC EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>INSERT INTO "TABLE NAME" (COLUMN NAMES) VALUES (VALUE OF THE COLUMNS);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSERT INTO EMPLOYEE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(EmpId, FirstName, LastName, EmpAge) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALUES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1, "Harsh", "Pachani", 19);</t>
+    </r>
+  </si>
+  <si>
+    <t>This will add a row with the values which assinged to the columns.</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT * FROM EMPLOYEE; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT * FROM HARSH.EMPLOYEE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT * FROM "TABLE NAME" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT * FROM "DATABASE NAME" . "TABLE NAME"</t>
+    </r>
+  </si>
+  <si>
+    <t>This command will show the rows and columns of selected table of the database(All the data stored into the table). The * means Everything.</t>
+  </si>
+  <si>
+    <t>SELECT EMPID FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>If we want Particular Column data from the table.</t>
+  </si>
+  <si>
+    <t>SELECT "COLUMN NAME" FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT EMPID, FIRSTNAME, LASTNAME FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>If we want multiple Particular column data from the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT "COLUMN3" , "COLUMN2", "COLUMN 3" FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>NOT NULL CONSTRAINT</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Table2(
+    -&gt; EmpId INT NOT NULL,
+    -&gt; EmpAge INT NOT NULL,
+    -&gt; LastName varchar(10),
+    -&gt; FirstName varchar(15) NOT NULL
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>NOT NULL is a Constraint and if we use this in the column name then the value of that column cannot be NULL. And if we try to leave it NULL then mysql will throw an error.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,9 +489,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,8 +533,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -134,8 +582,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -179,13 +627,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -226,16 +674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>273825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14516</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2664600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>111900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2388375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,7 +712,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4693425" y="3264675"/>
+          <a:off x="5036325" y="6017400"/>
           <a:ext cx="7772400" cy="4369841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -278,14 +726,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>64541</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -314,7 +762,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="7696200"/>
+          <a:off x="19050" y="9677400"/>
           <a:ext cx="7772400" cy="4369841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -326,16 +774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>540525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>388125</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>81191</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>111900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216675</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,7 +812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7855725" y="7712850"/>
+          <a:off x="7884300" y="10398900"/>
           <a:ext cx="7772400" cy="4369841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -378,13 +826,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>188366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -426,16 +874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>550050</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>178575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>397650</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>166916</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330975</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235725</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +912,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7865250" y="12180075"/>
+          <a:off x="7903350" y="14837550"/>
           <a:ext cx="7772400" cy="4369841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -478,13 +926,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>131216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -526,16 +974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>588150</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>83325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>435750</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>71666</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273825</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>102375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>178575</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>90716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -564,7 +1012,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7903350" y="16656825"/>
+          <a:off x="7846200" y="19342875"/>
           <a:ext cx="7772400" cy="4369841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -578,13 +1026,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -626,16 +1074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>578625</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>45225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>426225</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>33566</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>245250</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150000</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -664,7 +1112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7893825" y="21190725"/>
+          <a:off x="7817625" y="23791050"/>
           <a:ext cx="7772400" cy="4369841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -678,13 +1126,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>159791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -728,13 +1176,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>150000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>138341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -778,13 +1226,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -827,13 +1275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>43091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -877,13 +1325,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -926,13 +1374,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>119291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -975,13 +1423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>26441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1024,13 +1472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1074,13 +1522,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>102641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,13 +1571,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>62141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1172,13 +1620,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>93116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1222,13 +1670,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1272,13 +1720,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1322,13 +1770,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>95441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1372,13 +1820,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>83591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1684,16 +2132,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E39"/>
+  <dimension ref="B18:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="P309" sqref="P309"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="78" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DDA23F-C5A9-4006-8BE0-3528F83D03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5FB140-2F45-4EDA-870F-5EEF677E2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>CLAUSE</t>
   </si>
@@ -422,15 +422,289 @@
     <t>NOT NULL CONSTRAINT</t>
   </si>
   <si>
-    <t>CREATE TABLE Table2(
+    <t>NOT NULL is a Constraint and if we use this in the column name then the value of that column cannot be NULL. And if we try to leave it NULL then mysql will throw an error.</t>
+  </si>
+  <si>
+    <t>UNIQUE CONSTRAINT</t>
+  </si>
+  <si>
+    <t>UNIQUE is a Constrain threw which we can declare or make a UNIQUE Column.</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY CONSTRAINT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> create table Table3(
     -&gt; EmpId INT NOT NULL,
-    -&gt; EmpAge INT NOT NULL,
+    -&gt; FIRSTNAME varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNIQUE(EmpId)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create table Table4(
+    -&gt; EmpId INT NOT NULL,
+    -&gt; FIRSTNAME varchar(255),
+    -&gt; Lastname varchar(254),
+    -&gt; EmpZone varchar(20),
+    -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY (EmpId)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE TABLE Table2(
+    -&gt; EmpId INT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; EmpAge INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     -&gt; LastName varchar(10),
-    -&gt; FirstName varchar(15) NOT NULL
+    -&gt; FirstName varchar(15) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     -&gt; );</t>
-  </si>
-  <si>
-    <t>NOT NULL is a Constraint and if we use this in the column name then the value of that column cannot be NULL. And if we try to leave it NULL then mysql will throw an error.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE Table2(
+    -&gt; EmpId INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; EmpAge INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; LastName varchar(10),
+    -&gt; FirstName varchar(15) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PRIMARY KEY is a Uniquely identify each row in a table. EX:- Student RollNo, Aadharcard Number, Pan number,  Account Number.                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Always use desc "table name" for see which is primary key and which is unique key</t>
+    </r>
+  </si>
+  <si>
+    <t>CHECK CONSTRAINT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create table employee2(
+    -&gt; EmpId INT NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; Lastname varchar(254),
+    -&gt; EmpAge INT,
+    -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHECK(EmpAge &gt; 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <t>CHECK Constraint use to Check the condition of the value of column, if the condition is not fulfilled then it will give an error.</t>
   </si>
 </sst>
 </file>
@@ -2134,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B18:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,13 +2578,55 @@
         <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="2" t="s">
+    </row>
+    <row r="32" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5FB140-2F45-4EDA-870F-5EEF677E2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B4560-3F06-4BF6-883A-DF4873FAD52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>CLAUSE</t>
   </si>
@@ -705,6 +705,164 @@
   </si>
   <si>
     <t>CHECK Constraint use to Check the condition of the value of column, if the condition is not fulfilled then it will give an error.</t>
+  </si>
+  <si>
+    <t>DEFAULT CONSTRAINT</t>
+  </si>
+  <si>
+    <r>
+      <t>create table emp(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; EmpDept varchar(255)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEFAULT 'Operations'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create table emp(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; EmpDept varchar(255) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT 'Operations'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <t>If the value of the default is given then we can left the column data as a null andstill the data will be taken from default constrain.</t>
+  </si>
+  <si>
+    <t>INDEX CONSTRAINT</t>
+  </si>
+  <si>
+    <t>Indexes are basically use to retrieve records from the database quickly than any other method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE INDEX DEMOINDEX
+    -&gt; ON EMPLOYEE(FirstName);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE INDEX DEMOINDEX
+    -&gt; ON "Table Name"("Column name");</t>
+  </si>
+  <si>
+    <t>CREATE INDEX DEMOINDEX2
+    -&gt; ON EMPLOYEE(FirstName,LastName,EmpZone);</t>
+  </si>
+  <si>
+    <t>To Use multiple Columns.</t>
+  </si>
+  <si>
+    <t>SHOW  INDEXES</t>
+  </si>
+  <si>
+    <t>SHOW INDEXES FROM "TABLE NAME"</t>
+  </si>
+  <si>
+    <t>SHOW INDEXES FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>To see list of every Indexes from the table</t>
+  </si>
+  <si>
+    <t>DROP OR DELETE INDEXES</t>
+  </si>
+  <si>
+    <t>DROP INDEX DEMOINDEX ON EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>DROP INDEX "INDEX NAME" ON "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>This command will Delete an index from the table</t>
+  </si>
+  <si>
+    <t>ALTER A TABLE :-ALTER means we can ADD, DELETE and MODIFY columns in an  EXISTING TABLE</t>
+  </si>
+  <si>
+    <t>To Add a New Column.</t>
+  </si>
+  <si>
+    <t>ALTER TABLE EMPLOYEE
+    -&gt; ADD EmpDept varchar(255);</t>
+  </si>
+  <si>
+    <t>Add Column</t>
+  </si>
+  <si>
+    <t>ALTER TABLE "TABLE NAME"
+    -&gt; ADD "COLUMN NAME"  DATATYPE(SIZE IF ANY);</t>
+  </si>
+  <si>
+    <t>To Delete a Column.</t>
+  </si>
+  <si>
+    <t>Delete Column</t>
+  </si>
+  <si>
+    <t>ALTER TABLE EMPLOYEE
+    -&gt; DROP COLUMN EmpDept;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE "TABLE NAME"
+    -&gt; DROP COLUMN "COLUMN NAME";</t>
+  </si>
+  <si>
+    <t>Modify Column</t>
+  </si>
+  <si>
+    <t>To Modify a Column.</t>
+  </si>
+  <si>
+    <t>ALTER TABLE EMPLOYEE
+    -&gt; MODIFY COLUMN EmpDept int;</t>
+  </si>
+  <si>
+    <t>ALTER TABLE "TABLE NAME"
+    -&gt; MODIFY COLUMN "COLUMN NAME" "DATA TYPE";</t>
   </si>
 </sst>
 </file>
@@ -763,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,6 +936,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,13 +1062,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -950,13 +1111,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2664600</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2388375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1000,13 +1161,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1050,13 +1211,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>311925</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216675</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1100,13 +1261,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>188366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1150,13 +1311,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330975</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235725</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1200,13 +1361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>131216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1250,13 +1411,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>273825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>102375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>178575</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>90716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1300,13 +1461,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1350,13 +1511,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>245250</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1400,13 +1561,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>159791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1450,13 +1611,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>150000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>138341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1500,13 +1661,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1549,13 +1710,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>43091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1599,13 +1760,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1648,13 +1809,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>119291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1697,13 +1858,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>26441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1746,13 +1907,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1796,13 +1957,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>102641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1845,13 +2006,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>62141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1894,13 +2055,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>93116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1944,13 +2105,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1994,13 +2155,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2044,13 +2205,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>95441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2094,13 +2255,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>83591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2406,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B18:H60"/>
+  <dimension ref="B18:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,10 +2790,126 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="5"/>
+    <row r="35" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C41:E41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B4560-3F06-4BF6-883A-DF4873FAD52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D0C4C-D4ED-47CB-BD95-EB9119FC7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
   <si>
     <t>CLAUSE</t>
   </si>
@@ -863,6 +863,365 @@
   <si>
     <t>ALTER TABLE "TABLE NAME"
     -&gt; MODIFY COLUMN "COLUMN NAME" "DATA TYPE";</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT EmpAge FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT will remove all duplicate Value from the table and only show Unique values.</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT "COLUMN NAME" FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>Display Records from a Specific Column.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT FirstName from EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>SELECT SPECIFIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT "COLUMN NAME" from "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>WHERE CLAUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpAge = 25;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM"TABLE NAME"
+    -&gt; WHERE "COLUMN NAME"  =  "CONDITION";</t>
+  </si>
+  <si>
+    <t>To Display Specific or Conditional Data from the Table.</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpAge &gt; 30;</t>
+  </si>
+  <si>
+    <t>Here are the various Operators in Where Clause:-                                                 =, &gt;, &lt;, &lt;=, &gt;=, &lt;&gt;(This is Not Equal to), BETWEEN, LIKE, IN</t>
+  </si>
+  <si>
+    <t>WHERE EXAMPLES:</t>
+  </si>
+  <si>
+    <t>AND OPERATOR</t>
+  </si>
+  <si>
+    <t>And Operator displays the records only when all the Condtion Seperated by AND is True.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpAge=35 AND EmpZone="North";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM ''TABLE NAME"
+    -&gt; WHERE"COLUMN NAME"="CONDITION" AND "COLUMN NAME"="CONDITION";</t>
+  </si>
+  <si>
+    <t>OR OPERATOR</t>
+  </si>
+  <si>
+    <t>OR OPERATOR dIsplays the records only when all the Conditon Seperated by OR is True.</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpZone='west' OR EmpZone='South';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; where FirstName='Jack' OR LastName='Sparrow';</t>
+  </si>
+  <si>
+    <t>IF ONE condition is True then the Table will show the content</t>
+  </si>
+  <si>
+    <t>SELECT * FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN NAME"='CONDITION' OR "COLUMN NAME"='CONDITION';</t>
+  </si>
+  <si>
+    <t>NOT OPERATOR</t>
+  </si>
+  <si>
+    <t>NOT OPERATOR allows you to display the records if the conditions or condition is not True.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; WHERE NOT EmpAge=25;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM "TABLE NAME"
+    -&gt; WHERE NOT "COLUMN NAME"="CONDITION";</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single Line Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is for Single line Comment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                     OR                                                                                                                                                                                 --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is for Single line Comment                                                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AND                                                                                                                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Multi Line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment:- /*This is for Multi line Comment*/                                                                                                                                         EX:- SELECT *
+    -&gt; /*
+   /*&gt; THIS IS FOR MULTILINE COMMENT
+   /*&gt; */
+    -&gt; FROM EMPLOYEE;</t>
+    </r>
+  </si>
+  <si>
+    <t>COUNT()     FUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT COUNT(EmpAge)
+    -&gt; FROM EMPLOYEE
+    -&gt; WHERE EmpAge = 35;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT COUNT("COLUMN NAME")
+    -&gt; FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN NAME" = "CONDITION";</t>
+  </si>
+  <si>
+    <t>COUNT() is a Function which Return the Number of Row from the Table.</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*)
+    -&gt; FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*)
+    -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>To Print the Entire Table Rows</t>
+  </si>
+  <si>
+    <t>ALIAS</t>
+  </si>
+  <si>
+    <t>ALIAS is a Temporary name That is given to a Table or Column in a Table while showing the  Results</t>
+  </si>
+  <si>
+    <t>SELECT EmpAge AS age
+    -&gt; FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>SELECT "EXISTING NAME OF COLUMN" AS "NEW NAME OF THAT COLUMN"
+    -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>SELECT FirstName AS name1, LastName AS name2
+    -&gt; FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>For multiple Column ALIAS</t>
+  </si>
+  <si>
+    <t>IN OPERATOR</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpZone IN('north', 'west');</t>
+  </si>
+  <si>
+    <t>SELECT * FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN NAME" IN('VALUE1', 'VALUE2', …, 'VALUE N');</t>
+  </si>
+  <si>
+    <t>NOT IN OPERATOR</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpZone NOT IN('north', 'west');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN OPERATOR can be use for multiple Conditon </t>
+  </si>
+  <si>
+    <t>SELECT * FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN NAME" NOT IN('VALUE1', 'VALUE2', …, 'VALUE N');</t>
+  </si>
+  <si>
+    <t>LIKE OPERATOR</t>
+  </si>
+  <si>
+    <t>LIKE OPERATOR is used to Search for a Specified Pattern in a Column. OR USED TO SEARCH FOR A SPECIFIED PATTERN.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It has Two WildCards: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is for Zero, One or More Characters. AND </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is for Single Characters.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; WHERE FirstName LIKE 'E%'; #we used % Operator because we don't know how many characters are there after e. % is for representing a zero, one or more than one characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM "TABLE NAME"
+    -&gt; WHERE"TABLE NAME" LIKE '"CHARACTER"%';  #we used % Operator because we don't know how many characters are there after e. % is for representing a zero, one or more than one characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpZone LIKE '%h';</t>
+  </si>
+  <si>
+    <t>OTHER EXAMPLES:-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpZone LIKE '___t'; #Here we used _Three times because now we know the t is in Fourth Position and before there are Three characters so we used Three _</t>
+  </si>
+  <si>
+    <t>BETWEEN OPERATOR</t>
   </si>
 </sst>
 </file>
@@ -921,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,6 +1298,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1062,13 +1424,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1111,13 +1473,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2664600</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2388375</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1161,13 +1523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,13 +1573,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>311925</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216675</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1261,13 +1623,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>188366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1311,13 +1673,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235725</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,13 +1723,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>131216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1411,13 +1773,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>273825</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>102375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>178575</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>90716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1461,13 +1823,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1511,13 +1873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>245250</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1561,13 +1923,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>159791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1611,13 +1973,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>150000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>138341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1661,13 +2023,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1710,13 +2072,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>43091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1760,13 +2122,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1809,13 +2171,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>119291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1858,13 +2220,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>26441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1907,13 +2269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1957,13 +2319,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>102641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2006,13 +2368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>62141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2055,13 +2417,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>93116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2105,13 +2467,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2155,13 +2517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2205,13 +2567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>95441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2255,13 +2617,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>83591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2567,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B18:H78"/>
+  <dimension ref="B18:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,315 +2962,543 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="3:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+    <row r="29" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+    <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+    <row r="32" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+    <row r="33" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+    <row r="34" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+    <row r="41" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+    <row r="43" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="5"/>
+    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D0C4C-D4ED-47CB-BD95-EB9119FC7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11EEE6E-EA53-4498-A408-87773D07E3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
   <si>
     <t>CLAUSE</t>
   </si>
@@ -1222,6 +1222,27 @@
   </si>
   <si>
     <t>BETWEEN OPERATOR</t>
+  </si>
+  <si>
+    <t>BETWEEN OPERATOR is For Select values within a Given Range.</t>
+  </si>
+  <si>
+    <t>WHERE CLAUSE IF FOR SET A CONDITION</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpAge BETWEEN 30 AND 35;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN" BETWEEN "START CONDITION" AND "END CONDITION";</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; WHERE EmpAge NOT BETWEEN 30 and 35;</t>
+  </si>
+  <si>
+    <t>NOT BETWEEN OPERATOR</t>
   </si>
 </sst>
 </file>
@@ -1424,13 +1445,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1473,13 +1494,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2664600</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2388375</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1523,13 +1544,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1573,13 +1594,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>311925</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216675</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1623,13 +1644,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>188366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1673,13 +1694,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330975</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235725</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1723,13 +1744,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>131216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1773,13 +1794,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>273825</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>102375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>178575</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>90716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1823,13 +1844,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1873,13 +1894,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>245250</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1923,13 +1944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>159791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1973,13 +1994,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>150000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>138341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2023,13 +2044,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2072,13 +2093,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>43091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2122,13 +2143,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2171,13 +2192,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>119291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2220,13 +2241,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>26441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2269,13 +2290,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2319,13 +2340,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>102641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2368,13 +2389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>62141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2417,13 +2438,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>93116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2467,13 +2488,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2517,13 +2538,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2567,13 +2588,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>95441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2617,13 +2638,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>83591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2929,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B18:H88"/>
+  <dimension ref="B18:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,533 +2993,558 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="3:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="90" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+    <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
+    <row r="44" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
+    <row r="54" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
+    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C55" s="6" t="s">
+    <row r="56" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
+    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
+    <row r="58" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+    <row r="59" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
+    <row r="63" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C63" s="6"/>
-      <c r="E63" s="6" t="s">
+    <row r="64" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+      <c r="E64" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="5"/>
+      <c r="D65" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11EEE6E-EA53-4498-A408-87773D07E3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67FE58-4392-41F0-BEA7-F59F2FDA1116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
   <si>
     <t>CLAUSE</t>
   </si>
@@ -1243,6 +1243,128 @@
   </si>
   <si>
     <t>NOT BETWEEN OPERATOR</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>CASE STATEMENT</t>
+  </si>
+  <si>
+    <t>SELECT * FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN NAME" NOT BETWEEN "START CONDITION" and "END CONDITION";</t>
+  </si>
+  <si>
+    <t>CASE STATEMENT goes through conditions and Return value if the first condition is meet. It's just like an If-Else statement</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName, EmpAge,
+    -&gt; CASE
+    -&gt; WHEN EmpAge &gt; 25 THEN 'Employee with experiance, Eligable for Sr. Profile'
+    -&gt; WHEN EmpAge = 25 THEN 'Employee is mid-experianced level, Eligible!'
+    -&gt; ELSE 'Freshers... New to the company'
+    -&gt; END AS Eligibility
+    -&gt; FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT "COLUMN 1, COLUMN 2, COLUMN 3,
+    -&gt; CASE
+    -&gt; WHEN "COLUMN NAME" &gt; "CONDITION" THEN "MESSAGE IF CONDITION BECOMES TRUE" 
+    -&gt; WHEN "COLUMN NAME" = "CONDITION" THEN "CONDITION MESSAGE"
+    -&gt; ELSE "CONDITION MESSAGE"
+    -&gt; END AS Eligibility (IT IS AN ALIAS, ELIGIBILITY IS TEMPORARY COLUMN NAME)
+    -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>DELETE STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DELETE FROM EMPLOYEE
+    -&gt; WHERE EmpZone = 'South';</t>
+  </si>
+  <si>
+    <t>To Delete Specific Records from the Table</t>
+  </si>
+  <si>
+    <t>To Delete All the Records from the Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DELETE FROM "TABLE NAME"
+    -&gt; WHERE "COLUMN NAME" = 'CONDITION';</t>
+  </si>
+  <si>
+    <t>DELETE FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>DELETE FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>UPDATE STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UPDATE EMPLOYEE
+    -&gt; SET EmpAge = 24
+    -&gt; WHERE EmpId = 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UPDATE "TABLE NAME"
+    -&gt; SET "COLUMN NAME" = "UPDATED VALUE"
+    -&gt; WHERE "COLUMN NAME" = "ID IN WHICH WE WANT TO UPDATE THE VALUE";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Update the Value </t>
+  </si>
+  <si>
+    <t>DROP TABLE STATEMENT OR DELTING A TABLE</t>
+  </si>
+  <si>
+    <t>DROP TABLE EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>DROP TABLE "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>To Delete Or Drop a Table</t>
+  </si>
+  <si>
+    <t>DROP A DATABASE OR DELETE A DATABASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DROP DATABASE harshpachani;</t>
+  </si>
+  <si>
+    <t>To Delete an Entire Database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DROP DATABASE "DATABASE NAME";</t>
+  </si>
+  <si>
+    <t>AVG() FUNCTION</t>
+  </si>
+  <si>
+    <t>AVG() is a Function to Return the Average value of a Numeric column.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT AVG(Emp_age)
+    -&gt; FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT AVG("COLUMN NAME")
+    -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>SUM() FUNCTION</t>
+  </si>
+  <si>
+    <t>To Return a Sum of the numeric value</t>
+  </si>
+  <si>
+    <t>SELECT SUM(Emp_age)
+    -&gt; FROM EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>SELECT SUM("COLUMN NAME")
+    -&gt; FROM "TABLE NAME";</t>
   </si>
 </sst>
 </file>
@@ -1445,13 +1567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1494,13 +1616,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2664600</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2388375</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1544,13 +1666,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1594,13 +1716,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>311925</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216675</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1644,13 +1766,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>188366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1694,13 +1816,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330975</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235725</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1744,13 +1866,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>131216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1794,13 +1916,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>273825</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>102375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>178575</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>90716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1844,13 +1966,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1894,13 +2016,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>245250</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1944,13 +2066,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>159791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1994,13 +2116,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>150000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>138341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2044,13 +2166,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2093,13 +2215,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>43091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2143,13 +2265,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2192,13 +2314,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>119291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2241,13 +2363,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>26441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2290,13 +2412,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2340,13 +2462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>102641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2389,13 +2511,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>62141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2438,13 +2560,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>93116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2488,13 +2610,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2538,13 +2660,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2588,13 +2710,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>95441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2638,13 +2760,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>83591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2950,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B18:H89"/>
+  <dimension ref="B18:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,22 +3090,22 @@
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="150" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>112</v>
@@ -2991,7 +3113,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
         <v>143</v>
@@ -2999,13 +3121,16 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3144,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3161,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3178,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
@@ -3061,7 +3195,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
@@ -3075,7 +3212,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
@@ -3089,7 +3229,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
@@ -3103,7 +3246,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>7</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>35</v>
       </c>
@@ -3128,7 +3274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,7 +3285,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
@@ -3153,7 +3302,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3167,7 +3319,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
@@ -3181,7 +3336,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>11</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
@@ -3195,7 +3353,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>12</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
@@ -3209,7 +3370,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>13</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>56</v>
       </c>
@@ -3223,7 +3387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>61</v>
       </c>
@@ -3231,7 +3395,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>14</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3245,7 +3412,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
@@ -3259,14 +3429,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>16</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>73</v>
       </c>
@@ -3280,7 +3453,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>17</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>76</v>
       </c>
@@ -3294,7 +3470,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>18</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>79</v>
       </c>
@@ -3308,7 +3487,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>19</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>83</v>
       </c>
@@ -3322,7 +3504,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>20</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>89</v>
       </c>
@@ -3336,7 +3521,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>21</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>91</v>
       </c>
@@ -3350,7 +3538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
@@ -3361,7 +3549,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>98</v>
       </c>
@@ -3375,7 +3566,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>23</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>102</v>
       </c>
@@ -3389,7 +3583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3397,7 +3591,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>24</v>
+      </c>
       <c r="C55" s="6" t="s">
         <v>108</v>
       </c>
@@ -3411,7 +3608,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>25</v>
+      </c>
       <c r="C56" s="6" t="s">
         <v>113</v>
       </c>
@@ -3425,7 +3625,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
         <v>118</v>
@@ -3437,7 +3637,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>26</v>
+      </c>
       <c r="C58" s="6" t="s">
         <v>120</v>
       </c>
@@ -3451,7 +3654,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
         <v>125</v>
       </c>
@@ -3459,7 +3662,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>27</v>
+      </c>
       <c r="C60" s="6" t="s">
         <v>126</v>
       </c>
@@ -3473,7 +3679,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>28</v>
+      </c>
       <c r="C61" s="6" t="s">
         <v>129</v>
       </c>
@@ -3485,7 +3694,10 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>29</v>
+      </c>
       <c r="C62" s="6" t="s">
         <v>133</v>
       </c>
@@ -3499,7 +3711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="s">
         <v>139</v>
       </c>
@@ -3510,14 +3722,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
       <c r="E64" s="6" t="s">
         <v>140</v>
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>141</v>
       </c>
@@ -3531,16 +3746,205 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>31</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="D66" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="5"/>
+    <row r="67" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>32</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>33</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>34</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>35</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>36</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>37</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>38</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Desktop\MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67FE58-4392-41F0-BEA7-F59F2FDA1116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB3961D-FC8E-4D81-BFA8-D71634836FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="246">
   <si>
     <t>CLAUSE</t>
   </si>
@@ -779,14 +779,6 @@
   </si>
   <si>
     <t>Indexes are basically use to retrieve records from the database quickly than any other method.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CREATE INDEX DEMOINDEX
-    -&gt; ON EMPLOYEE(FirstName);</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CREATE INDEX DEMOINDEX
-    -&gt; ON "Table Name"("Column name");</t>
   </si>
   <si>
     <t>CREATE INDEX DEMOINDEX2
@@ -1365,6 +1357,482 @@
   <si>
     <t>SELECT SUM("COLUMN NAME")
     -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>ORDER BY KEYWORD</t>
+  </si>
+  <si>
+    <t>To Sort the Records in Ascending Order</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMPLOYEE
+    -&gt; ORDER BY Emp_age;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM EMPLOYEE
+    -&gt; ORDER BY Emp_age DESC;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM "TABLE NAME"
+    -&gt; ORDER BY "COLUMN NAME";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * FROM "TABLE NAME"
+    -&gt; ORDER BY "COLUMN NAME" DESC;</t>
+  </si>
+  <si>
+    <t>To Sort the Records in Ascending Order. Here DESC Stands for Descending order</t>
+  </si>
+  <si>
+    <t>ORDER BY DESC KEYWORD</t>
+  </si>
+  <si>
+    <t>AUTO INCREMENT FIELD</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT will be Incremented Everytime whenever the New Record or Row will be added, and we don't need to Increment the numbers Manually.It Starts from One and Increment Every time new Row Afftected.</t>
+  </si>
+  <si>
+    <t>MAX() FUNCTION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE "TABLE NAME"(
+    -&gt; "COLUMN NAME" "COLUMN DATATYPE" NOT NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_INCREMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#This is a Primary Key and Will be Incremented Everytime whenever the New Record or Row will be added.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; Empage int,
+    -&gt; EmpZone varchar(255),
+    -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY(EmpId)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE EMPLOYEE(
+    -&gt; EmpId int NOT NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_INCREMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; Empage int,
+    -&gt; EmpZone varchar(255),
+    -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY(EmpId)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; );</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> SELECT MAX(Empage) AS LargestAge
+    -&gt; FROM EMPLOYEE;                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OUTPUT:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++------------+
+| LargestAge |
++------------+
+|         29 |
++------------+
+1 row in set (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <t>Return the Maximum Value among the Column</t>
+  </si>
+  <si>
+    <t>MIN() FUNCTION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> SELECT MIN(EmpAge) AS SmallestAge
+    -&gt; FROM EMPLOYEE;                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OUTPUT:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++-------------+
+| SmallestAge |
++-------------+
+|          25 |
++-------------+
+1 row in set (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT MAX("COLUMN NAME") AS "NAME TO BE PRINTED AS TEMPORARY COLUMN NAME"                    -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT MIN("COLUMN NAME") AS "NAME TO BE PRINTED AS TEMPORARY COLUMN NAME"    -&gt; FROM "TABLE NAME";</t>
+  </si>
+  <si>
+    <t>Return the Minimum Value among the Column</t>
+  </si>
+  <si>
+    <t>CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Should not Have a Null Value</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>All the Values in a Column are Unique. EX:- ID</t>
+  </si>
+  <si>
+    <t>Uniquely identify each row in a table, EX:- EmpId, LicenseNO, StudentRollNo.</t>
+  </si>
+  <si>
+    <t>Uniquely identify</t>
+  </si>
+  <si>
+    <t>All Values in a Column Satisfies a specific condition EX:- Age &gt; 20</t>
+  </si>
+  <si>
+    <t>Set a Default value</t>
+  </si>
+  <si>
+    <t>Create and Retrieve data quickly from a database</t>
+  </si>
+  <si>
+    <t>CREATE TABLE EMPLOYEE(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; UNIQUE(EmpId)
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>CREATE TABLE "TABLE NAME"(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; UNIQUE("COLUMN NAME")
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>When we Declare any Column name as a Unique Key then that Column will Automatically become the Primary Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+mysql&gt; CREATE TABLE EMPLOYEE(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; EmpAge int,
+    -&gt; CHECK(EmpAge&gt;20)
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>IF WE TRY  TO ENTER THE AGE WHICH IS LESS THAN 20 THEN THE VALUES WON'T BE ADDED INTO THE TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create table employee(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; EmpDept varchar(255) DEFAULT 'Operations'
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>CREATE INDEX DEMOINDEX2
+    -&gt; ON EMPLOYEE(FirstName, LastName, EmpZone);</t>
+  </si>
+  <si>
+    <t>SHOW INDEXES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> show indexes from employee;</t>
+  </si>
+  <si>
+    <t>Show every indexes in a list</t>
+  </si>
+  <si>
+    <t>DROP INDEXES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DROP INDEX DEMOINDEX ON EMPLOYEE;</t>
+  </si>
+  <si>
+    <t>CREATE INDEX "INDEX NAME"
+    -&gt; ON EMPLOYEE("COLUMN NAME1", "COLUMN NAME2, …, "COLUMN NAME N");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> show indexes from "TABLE NAME";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DROP INDEX "INDEX NAME" ON "TABLE NAME";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE TABLE EMPLOYEE(
+    -&gt; EmpId int NOT NULL,
+    -&gt; FirstName varchar(255),
+    -&gt; LastName varchar(255),
+    -&gt; EmpZone varchar(255),
+    -&gt; PRIMARY KEY(EmpId)
+    -&gt; );</t>
+  </si>
+  <si>
+    <t>LIMIT CLAUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select * from employee
+    -&gt; LIMIT 2;</t>
+  </si>
+  <si>
+    <t>We can Specify the Number of Records to Return easily Using the LIMIT CLAUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select * from "TABLE NAME"
+    -&gt; LIMIT "NUMBER OF ROWS WE WANT TO DISPLAY IN THE LIST";</t>
+  </si>
+  <si>
+    <t>JOINS</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN</t>
+  </si>
+  <si>
+    <t>FULL JOIN(NOT SUPPORTED IN MYSQL)</t>
+  </si>
+  <si>
+    <t>Return Records if the Both the tables having some matching values then the result will be same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT EMPLOYEE2.EmpId,DEPARTMENT.DeptName
+    -&gt; FROM EMPLOYEE2
+    -&gt; INNER JOIN DEPARTMENT ON EMPLOYEE2.DeptId = DEPARTMENT.DeptId;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT "TABLE 1 NAME"."COLUMN NAME","TABLE 2 NAME" . "COLUMN NAME"
+    -&gt; FROM "TABLE 1 NAME"
+    -&gt; INNER JOIN "TABLE 2 NAME" ON "TABLE 1 NAME" . "COLUMN NAME" = "TABLE 2 NAME" . "COLUMN NAME";</t>
+  </si>
+  <si>
+    <t>SELECT EMPLOYEE2.EmpId,DEPARTMENT.DeptName
+    -&gt; FROM DEPARTMENT
+    -&gt; LEFT JOIN EMPLOYEE2 ON EMPLOYEE2.DeptId = DEPARTMENT.DeptId;</t>
+  </si>
+  <si>
+    <t>SELECT EMPLOYEE2.EmpId,DEPARTMENT.DeptName
+    -&gt; FROM DEPARTMENT
+    -&gt; RIGHT JOIN EMPLOYEE2 ON EMPLOYEE2.DeptId = DEPARTMENT.DeptId;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> CREATE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INDEX "INDEX NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; ON "Table Name"("Column name");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> CREATE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INDEX DEMOINDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    -&gt; ON EMPLOYEE(FirstName);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1423,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1442,6 +1910,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1567,13 +2041,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1616,13 +2090,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2664600</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2388375</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1666,13 +2140,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1716,13 +2190,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>311925</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>111900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216675</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>100241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1766,13 +2240,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>188366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1816,13 +2290,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330975</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235725</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1866,13 +2340,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>131216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1916,13 +2390,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>273825</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>102375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>178575</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>90716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1966,13 +2440,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2016,13 +2490,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>245250</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>169050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>157391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2066,13 +2540,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>159791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2116,13 +2590,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>150000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>138341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2166,13 +2640,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>74066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2215,13 +2689,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>54750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>43091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2265,13 +2739,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>140741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2314,13 +2788,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>119291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2363,13 +2837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>26441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2412,13 +2886,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2462,13 +2936,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>102641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2511,13 +2985,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>62141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2560,13 +3034,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>93116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2610,13 +3084,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>140475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>128816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2660,13 +3134,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2710,13 +3184,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>95441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2760,13 +3234,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>83591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3072,10 +3546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B18:H106"/>
+  <dimension ref="B18:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3582,7 @@
     <row r="21" spans="2:6" ht="150" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -3116,7 +3590,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -3129,7 +3603,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>0</v>
@@ -3378,10 +3852,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>57</v>
@@ -3389,10 +3863,10 @@
     </row>
     <row r="40" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3400,16 +3874,16 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -3417,40 +3891,40 @@
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>16</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3458,16 +3932,16 @@
         <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3475,16 +3949,16 @@
         <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3492,16 +3966,16 @@
         <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3509,16 +3983,16 @@
         <v>20</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3526,27 +4000,27 @@
         <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="E50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -3554,16 +4028,16 @@
         <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -3571,24 +4045,24 @@
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3596,16 +4070,16 @@
         <v>24</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -3613,28 +4087,28 @@
         <v>25</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="E56" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3642,24 +4116,24 @@
         <v>26</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="F58" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3667,16 +4141,16 @@
         <v>27</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="E60" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3684,13 +4158,13 @@
         <v>28</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F61" s="6"/>
     </row>
@@ -3699,33 +4173,33 @@
         <v>29</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F64" s="6"/>
     </row>
@@ -3734,16 +4208,16 @@
         <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -3751,13 +4225,13 @@
         <v>31</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="135" x14ac:dyDescent="0.25">
@@ -3765,16 +4239,16 @@
         <v>32</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3782,28 +4256,28 @@
         <v>33</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C69" s="6"/>
       <c r="D69" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="45" x14ac:dyDescent="0.25">
@@ -3811,16 +4285,16 @@
         <v>34</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="E70" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -3828,16 +4302,16 @@
         <v>35</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E71" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -3845,16 +4319,16 @@
         <v>36</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3862,16 +4336,16 @@
         <v>37</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3879,72 +4353,385 @@
         <v>38</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="F74" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>39</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>40</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>41</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>42</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>43</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>44</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="5"/>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>5</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>6</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>7</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>8</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>9</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B96" s="8">
+        <v>1</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B97" s="8">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B98" s="8">
+        <v>3</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="8">
+        <v>4</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
